--- a/nop-biz/src/test/resources/_vfs/nop/test/imp/tree.test.xlsx
+++ b/nop-biz/src/test/resources/_vfs/nop/test/imp/tree.test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\_vfs\nop\test\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A89758-4EF3-499C-B333-BA37AAE34D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510E6FF5-B9DF-44D5-B56A-3F5C939C79B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="指标" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
